--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1125474.313387399</v>
+        <v>1119470.103572119</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042617.113969145</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10891126.11608431</v>
+        <v>11147559.08776795</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>357.8652472346045</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>213.8614881801139</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>172.9087972266228</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>217.0914199928489</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>270.6799298994382</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>194.5727296124822</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1065,13 +1065,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>153.3218307427929</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>183.017225111064</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>142.4741679217961</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>147.4560401914887</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>101.3490856418549</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>58.92805047992073</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>196.9899243971805</v>
+        <v>108.5813113004299</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>184.644893949213</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>1.487860919361781</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695258</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179425</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>217.8886059122774</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187834</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>69.1581728427126</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2253,10 +2253,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634785</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>190.5819130177792</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695258</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>54.32649042089668</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>221.6488161050615</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>215.4682153357893</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>176.7621441121403</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>67.96386702300485</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>9.795251606876045</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3675,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>275.330023919727</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>113.7379149844577</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4146,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1636.624422581789</v>
+        <v>2175.400891308159</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>1806.438374367747</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>1448.172675760997</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939509</v>
@@ -4351,31 +4351,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883008</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539437</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269323</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="X2" t="n">
-        <v>2388.243802269323</v>
+        <v>2952.140063348093</v>
       </c>
       <c r="Y2" t="n">
-        <v>1998.104470293511</v>
+        <v>2562.000731372281</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686085</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>846.071687106476</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080139</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986313</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962573</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>777.6936570343842</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C4" t="n">
-        <v>608.7574741064773</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6408346941415</v>
+        <v>214.4252100145766</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1662.808740112058</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1662.808740112058</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1662.808740112058</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V4" t="n">
-        <v>1408.124251906171</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W4" t="n">
-        <v>1408.124251906171</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X4" t="n">
-        <v>1180.134701008154</v>
+        <v>935.9190763285891</v>
       </c>
       <c r="Y4" t="n">
-        <v>959.3421218646239</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="X5" t="n">
-        <v>2004.539063190924</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="Y5" t="n">
-        <v>2004.539063190924</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.4557027387031</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C7" t="n">
-        <v>812.5195198107962</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D7" t="n">
-        <v>662.4028803984604</v>
+        <v>214.4252100145766</v>
       </c>
       <c r="E7" t="n">
-        <v>514.4897868160673</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F7" t="n">
-        <v>367.5998393181569</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1742.428664137924</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="V7" t="n">
-        <v>1391.09371846696</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W7" t="n">
-        <v>1391.09371846696</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X7" t="n">
-        <v>1163.104167568943</v>
+        <v>935.9190763285891</v>
       </c>
       <c r="Y7" t="n">
-        <v>1163.104167568943</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="8">
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4840,16 +4840,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2735.306770649777</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X8" t="n">
-        <v>2735.306770649777</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>2489.080739605072</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>732.1533772316425</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>563.2171943037356</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>413.1005548913998</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>413.1005548913998</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>266.2106073934895</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.594421205412</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1134.594421205412</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>913.8018420618822</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2005.586939522201</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.624422581789</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>3155.791869823214</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3155.791869823214</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3155.791869823214</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>2782.326111562134</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2392.186779586323</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.8377936138381</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>163.8377936138381</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>163.8377936138381</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>163.8377936138381</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>163.8377936138381</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>163.8377936138381</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1232.150970528558</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1232.150970528558</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1232.150970528558</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993393</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.097597267229</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.034709923658</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>2182.266054653544</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>1808.800296392464</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>1418.660964416652</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031482</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>680.6375233676408</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>679.1346335501037</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>529.0179941377679</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>381.1049005553748</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2149530574645</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088492</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.608663915319</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.842048484845</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1224.739181610488</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>970.0546934046014</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>680.6375233676408</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>680.6375233676408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>680.6375233676408</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5530,19 +5530,19 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5582,31 +5582,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245714</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.17510664033</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5706,19 +5706,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1824.417283336614</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1569.732795130727</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.315625093766</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1280.315625093766</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406465</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168579</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5770,34 +5770,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.388077746847</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>917.5010142286973</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>1099.149479058937</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5971,19 +5971,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5992,49 +5992,49 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797183</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452622</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718139</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>951.7772127656159</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,49 +6208,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6293,31 +6293,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962605</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266882</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832662</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855603</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2160.315914855603</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6445,10 +6445,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6457,19 +6457,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6478,19 +6478,19 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273895</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.155464951614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167372</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167372</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998425</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947398</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741511</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806533</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>948.5505208511905</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6703,16 +6703,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6794,10 +6794,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7019,22 +7019,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.4310438008473</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7165,37 +7165,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7259,13 +7259,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="41">
@@ -7402,16 +7402,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7420,13 +7420,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.6905094135296</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304621</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.369871369643</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.5772922261132</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-2.952548028231361e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,16 +23311,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>192.0671214789812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.5947289549143</v>
+        <v>110.0033420516649</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>198.0889477142676</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>165.758960179266</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.728484105318785e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>136.2749052347518</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>68.29586847696675</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>98.08864825591523</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>28.0027403343156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>2.756905814749189e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>30.48882721876655</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.116438016305523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>75.37549921168772</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>150.6207863290899</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>138.8202214113363</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.09406519747961</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>812932.1179168979</v>
+        <v>959986.1899709913</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>812932.1179168978</v>
+        <v>959986.1899709912</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>959986.1899709911</v>
+        <v>959986.1899709912</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>959986.1899709911</v>
+        <v>959986.1899709912</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>959986.1899709913</v>
+        <v>959986.1899709912</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>959986.1899709911</v>
+        <v>959986.1899709912</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>959986.1899709913</v>
+        <v>959986.1899709912</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>959986.1899709915</v>
+        <v>959986.1899709913</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>959986.1899709915</v>
+        <v>959986.1899709912</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>959986.1899709913</v>
+        <v>959986.1899709912</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719633</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.663816559</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.6638165588</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="G2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="H2" t="n">
         <v>464109.2948217536</v>
       </c>
-      <c r="H2" t="n">
-        <v>464109.2948217535</v>
-      </c>
       <c r="I2" t="n">
-        <v>464109.2948217535</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217535</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217535</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.0334598198</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.25168002746068e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545119</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>91573.95495316933</v>
+      </c>
+      <c r="C4" t="n">
+        <v>91573.95495316932</v>
+      </c>
+      <c r="D4" t="n">
         <v>91573.95495316939</v>
       </c>
-      <c r="C4" t="n">
-        <v>91573.95495316939</v>
-      </c>
-      <c r="D4" t="n">
-        <v>91573.95495316944</v>
-      </c>
       <c r="E4" t="n">
-        <v>12210.17896214071</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12210.17896214071</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
         <v>12386.92018181813</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1056153.623570192</v>
+        <v>-1056153.623570193</v>
       </c>
       <c r="C6" t="n">
-        <v>272591.1221574005</v>
+        <v>272591.1221574006</v>
       </c>
       <c r="D6" t="n">
-        <v>272591.1221574005</v>
+        <v>272591.1221574006</v>
       </c>
       <c r="E6" t="n">
-        <v>305630.144293025</v>
+        <v>24840.0037543164</v>
       </c>
       <c r="F6" t="n">
-        <v>305630.144293025</v>
+        <v>350252.4655616715</v>
       </c>
       <c r="G6" t="n">
-        <v>40756.81135620858</v>
+        <v>350252.4655616715</v>
       </c>
       <c r="H6" t="n">
-        <v>350599.8448160283</v>
+        <v>350252.4655616714</v>
       </c>
       <c r="I6" t="n">
-        <v>350599.8448160284</v>
+        <v>350252.4655616715</v>
       </c>
       <c r="J6" t="n">
-        <v>133068.6424187509</v>
+        <v>132721.2631643938</v>
       </c>
       <c r="K6" t="n">
-        <v>350599.8448160283</v>
+        <v>350252.4655616715</v>
       </c>
       <c r="L6" t="n">
-        <v>350599.844816028</v>
+        <v>350252.4655616715</v>
       </c>
       <c r="M6" t="n">
-        <v>350599.8448160284</v>
+        <v>265197.4376261596</v>
       </c>
       <c r="N6" t="n">
-        <v>350599.8448160285</v>
+        <v>350252.4655616714</v>
       </c>
       <c r="O6" t="n">
-        <v>268464.0142205773</v>
+        <v>350252.4655616714</v>
       </c>
       <c r="P6" t="n">
-        <v>350599.8448160285</v>
+        <v>350252.4655616714</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26758,13 +26758,13 @@
         <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>278.1987997483754</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>341.306832697355</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.306832697355</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.306832697355</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.86859442887612</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>168.0688818921479</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>16.86022810481907</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>69.12041821276401</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>99.05117077903083</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>191.6652090435714</v>
       </c>
     </row>
     <row r="6">
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>12.70397751623528</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>36.5317241651052</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>240.2596737416845</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>201.7849285259243</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>64.67672261717337</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>24.68204843992099</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353161</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,25 +32311,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551115</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,40 +32548,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>164.9290651940696</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963292</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437241</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>446.0127311990654</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437241</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>366.8427442359113</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437241</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33739,10 +33739,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33979,7 +33979,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34459,13 +34459,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609571</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075249</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>22.33282074962517</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.348781916455</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992796</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770471</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992796</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774872</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>235.5010321525779</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992796</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789205</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37387,10 +37387,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38107,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1119470.103572119</v>
+        <v>1122625.022914341</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>1042617.113969144</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11147559.08776795</v>
+        <v>10891126.11608431</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>213.8614881801139</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145757</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>217.0914199928489</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -882,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>62.85012899977507</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>194.5727296124822</v>
+        <v>108.9812949757276</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>183.017225111064</v>
+        <v>192.1675620474797</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>142.4741679217961</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>39.42162633486713</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.67037196991666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>71.6703719699171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>195.0465954186446</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>69.60662835550659</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>108.5813113004299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>28.93382893561892</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>11.34864263958796</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="F19" t="n">
-        <v>9.146142788179425</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>94.64226186542922</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>101.9268484343554</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>54.32649042089668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>25.52471385612597</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2803,10 +2803,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>75.75905456204198</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>67.96386702300485</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>9.795251606876045</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>6.434538210426291</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2175.400891308159</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1806.438374367747</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1448.172675760997</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W2" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X2" t="n">
-        <v>2952.140063348093</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="Y2" t="n">
-        <v>2562.000731372281</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686085</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106476</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080139</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986313</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962573</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201688</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533.4780323548192</v>
+        <v>527.322087337517</v>
       </c>
       <c r="C4" t="n">
-        <v>364.5418494269123</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145766</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218345</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218345</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218345</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1708.010285469454</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1453.325797263567</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W4" t="n">
-        <v>1163.908627226606</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X4" t="n">
-        <v>935.9190763285891</v>
+        <v>527.322087337517</v>
       </c>
       <c r="Y4" t="n">
-        <v>715.126497185059</v>
+        <v>527.322087337517</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410104</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066533</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066533</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X5" t="n">
-        <v>2630.721789066533</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.4780323548192</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269123</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145766</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218345</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218345</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1742.428664137924</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="U7" t="n">
-        <v>1453.325797263567</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V7" t="n">
-        <v>1453.325797263567</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W7" t="n">
-        <v>1163.908627226606</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>935.9190763285891</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>715.126497185059</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4801,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3285.785997028497</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3285.785997028497</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3032.255520302333</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2701.192632958762</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866152</v>
+        <v>2701.192632958762</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.080739605072</v>
+        <v>2327.726874697682</v>
       </c>
       <c r="Y8" t="n">
-        <v>2489.080739605072</v>
+        <v>2327.726874697682</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>285.7963790512217</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="G10" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W10" t="n">
         <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>3128.589058560035</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>3128.589058560035</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>283.7117895417166</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>283.7117895417166</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>283.7117895417166</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>136.8218420438062</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>452.6479724696235</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>869.0763550278959</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>510.8106564211454</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>510.8106564211454</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>510.8106564211454</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>95.7382062661419</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>95.7382062661419</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>2014.778044008241</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>1624.638712032429</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597619</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>933.4367235171535</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>712.6441443736234</v>
       </c>
     </row>
     <row r="17">
@@ -5509,40 +5509,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5746,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,7 +5825,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
         <v>95.58405025273903</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>336.3048548543966</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>189.4149073564862</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="23">
@@ -5971,19 +5971,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>119.599202296584</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6466,22 +6466,22 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6700,19 +6700,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,7 +6736,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>847.6442739835331</v>
+        <v>951.3929232910542</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>782.4567403631473</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>632.3401009508116</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>484.4270073684185</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>337.5370598705081</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>170.340960585388</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y34" t="n">
-        <v>847.6442739835331</v>
+        <v>1133.041388121294</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7250,22 +7250,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836013</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556945</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>267.5122958789771</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>100.316196593857</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797186</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="41">
@@ -7405,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-2.952548028231361e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>8.871374720975552</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>96.41917990352164</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>110.0033420516649</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>12.64310083730706</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>168.4833375423493</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228704</v>
       </c>
       <c r="F19" t="n">
-        <v>136.2749052347518</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>70.88187642683963</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>64.53565828418191</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.6207863290899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25362,10 +25362,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>138.8202214113363</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>133.8601746357976</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>959986.1899709913</v>
+        <v>812932.1179168978</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>959986.1899709912</v>
+        <v>812932.1179168978</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>959986.1899709912</v>
+        <v>959986.1899709913</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>959986.1899709912</v>
+        <v>959986.1899709913</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>959986.1899709912</v>
+        <v>959986.1899709913</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>959986.1899709912</v>
+        <v>959986.1899709913</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>959986.1899709912</v>
+        <v>959986.1899709913</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>959986.1899709912</v>
+        <v>959986.1899709913</v>
       </c>
     </row>
     <row r="15">
@@ -26316,16 +26316,16 @@
         <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="E2" t="n">
-        <v>464109.2948217537</v>
+        <v>392146.6638165587</v>
       </c>
       <c r="F2" t="n">
-        <v>464109.2948217537</v>
+        <v>392146.6638165587</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217537</v>
@@ -26334,13 +26334,13 @@
         <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="J2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="L2" t="n">
         <v>464109.2948217537</v>
@@ -26355,7 +26355,7 @@
         <v>464109.2948217536</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>309843.0334598204</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545147</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316933</v>
+        <v>91573.95495316949</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316932</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181813</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="G4" t="n">
         <v>12386.92018181813</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1056153.623570193</v>
+        <v>-1056153.623570192</v>
       </c>
       <c r="C6" t="n">
-        <v>272591.1221574006</v>
+        <v>272591.1221574005</v>
       </c>
       <c r="D6" t="n">
-        <v>272591.1221574006</v>
+        <v>272591.1221574005</v>
       </c>
       <c r="E6" t="n">
-        <v>24840.0037543164</v>
+        <v>305282.5253632186</v>
       </c>
       <c r="F6" t="n">
-        <v>350252.4655616715</v>
+        <v>305282.5253632186</v>
       </c>
       <c r="G6" t="n">
-        <v>350252.4655616715</v>
+        <v>40722.0734307723</v>
       </c>
       <c r="H6" t="n">
-        <v>350252.4655616714</v>
+        <v>350565.1068905928</v>
       </c>
       <c r="I6" t="n">
-        <v>350252.4655616715</v>
+        <v>350565.1068905929</v>
       </c>
       <c r="J6" t="n">
-        <v>132721.2631643938</v>
+        <v>133033.9044933152</v>
       </c>
       <c r="K6" t="n">
-        <v>350252.4655616715</v>
+        <v>350565.1068905926</v>
       </c>
       <c r="L6" t="n">
-        <v>350252.4655616715</v>
+        <v>350565.1068905928</v>
       </c>
       <c r="M6" t="n">
-        <v>265197.4376261596</v>
+        <v>350565.1068905927</v>
       </c>
       <c r="N6" t="n">
-        <v>350252.4655616714</v>
+        <v>350565.1068905927</v>
       </c>
       <c r="O6" t="n">
-        <v>350252.4655616714</v>
+        <v>268429.2762951413</v>
       </c>
       <c r="P6" t="n">
-        <v>350252.4655616714</v>
+        <v>350565.1068905928</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>168.0688818921479</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>111.4435131414779</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>69.12041821276401</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>162.8595263892621</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>191.6652090435714</v>
+        <v>277.256643680326</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>36.5317241651052</v>
+        <v>27.38138722868948</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>240.2596737416845</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>69.76613545330872</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911157</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>24.68204843992099</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34371,7 +34371,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
